--- a/jpcore-r4/feature/swg3-encouter/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/feature/swg3-encouter/StructureDefinition-jp-encounter.xlsx
@@ -2959,7 +2959,7 @@
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
